--- a/public/sample_uploads/investor_kycs.xlsx
+++ b/public/sample_uploads/investor_kycs.xlsx
@@ -1116,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1:V5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,7 +1209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>

--- a/public/sample_uploads/investor_kycs.xlsx
+++ b/public/sample_uploads/investor_kycs.xlsx
@@ -511,7 +511,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
-    <t xml:space="preserve">Investor</t>
+    <t xml:space="preserve">Stakeholder</t>
   </si>
   <si>
     <t xml:space="preserve">Investing Entity</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">PAN</t>
+    <t xml:space="preserve">PAN/Tax Id</t>
   </si>
   <si>
     <t xml:space="preserve">Address</t>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/investor_kycs.xlsx
+++ b/public/sample_uploads/investor_kycs.xlsx
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t xml:space="preserve">Stakeholder</t>
   </si>
@@ -568,6 +568,9 @@
     <t xml:space="preserve">Agreement Unit Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom Field 1</t>
   </si>
   <si>
@@ -611,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -1114,10 +1120,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1139,9 +1145,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="11.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="21" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="2" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="18" style="1" width="11.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="22" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="2" width="10.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,241 +1214,256 @@
       <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>27478</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>50100000000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="7" t="n">
         <v>1000000</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>15772</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>50100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>2000000</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
+      <c r="V3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>33529</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>50100000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3000000</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>54</v>
+      <c r="V4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>36676</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>50100000003</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4000000</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>62</v>
+      <c r="V5" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
